--- a/RT4/RT4_absolue.xlsx
+++ b/RT4/RT4_absolue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LEXAR/Fiches_DQ/RT/RT4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6162978-45DE-2D46-B397-FDBEEED236D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDE2024-66A0-9A47-A014-303C65291545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{DA99AA12-AF59-3743-A91F-94FF289A4156}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,9 +690,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,6 +735,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9415919-816B-104D-944F-4C9BC61428B9}">
   <dimension ref="B1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1261,33 +1265,33 @@
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -1529,13 +1533,13 @@
       <c r="S23" s="12"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="59">
+      <c r="B24" s="58">
         <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="54">
         <v>6</v>
       </c>
       <c r="F24" s="12">
@@ -1556,13 +1560,13 @@
       <c r="S24" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="58">
+      <c r="B25" s="57">
         <v>4.5</v>
       </c>
       <c r="C25" s="47">
         <v>0.90900000000000003</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="54">
         <v>9</v>
       </c>
       <c r="F25" s="12">
@@ -1583,13 +1587,13 @@
       <c r="S25" s="12"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="55">
+      <c r="B26" s="54">
         <v>5</v>
       </c>
       <c r="C26" s="47">
         <v>0.90700000000000003</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="54">
         <v>12</v>
       </c>
       <c r="F26" s="12">
@@ -1612,13 +1616,13 @@
       <c r="S26" s="12"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="55">
+      <c r="B27" s="54">
         <v>5.5</v>
       </c>
       <c r="C27" s="47">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="54">
         <v>15</v>
       </c>
       <c r="F27" s="12">
@@ -1641,7 +1645,7 @@
       <c r="S27" s="12"/>
     </row>
     <row r="28" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55">
+      <c r="B28" s="54">
         <v>6</v>
       </c>
       <c r="C28" s="47">
@@ -1670,7 +1674,7 @@
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="56">
+      <c r="B29" s="55">
         <v>7</v>
       </c>
       <c r="C29" s="23">
@@ -1694,18 +1698,18 @@
       <c r="S29" s="12"/>
     </row>
     <row r="30" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="56">
+      <c r="B30" s="55">
         <v>8</v>
       </c>
       <c r="C30" s="23">
         <v>0.89800000000000002</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -1720,16 +1724,16 @@
       <c r="S30" s="12"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="56">
+      <c r="B31" s="55">
         <v>10</v>
       </c>
       <c r="C31" s="23">
         <v>0.89300000000000002</v>
       </c>
       <c r="D31" s="12"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -1744,7 +1748,7 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="56">
+      <c r="B32" s="55">
         <v>13</v>
       </c>
       <c r="C32" s="23">
@@ -1768,7 +1772,7 @@
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="56">
+      <c r="B33" s="55">
         <v>16</v>
       </c>
       <c r="C33" s="23">
@@ -1792,7 +1796,7 @@
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="57">
+      <c r="B34" s="56">
         <v>20</v>
       </c>
       <c r="C34" s="51">
@@ -1841,72 +1845,72 @@
         <v>1.0780000000000001</v>
       </c>
       <c r="D41" s="44"/>
-      <c r="E41" s="55">
+      <c r="E41" s="54">
         <v>6</v>
       </c>
       <c r="F41" s="12">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G41" s="54">
-        <v>1.05</v>
+      <c r="G41" s="69">
+        <v>1.0509999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="55">
+      <c r="B42" s="54">
         <v>1.4</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="54">
         <v>1.0680000000000001</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="54">
         <v>9</v>
       </c>
       <c r="F42" s="12">
         <v>3.55</v>
       </c>
-      <c r="G42" s="53">
-        <v>1.0319</v>
+      <c r="G42" s="69">
+        <v>1.0334000000000001</v>
       </c>
     </row>
     <row r="43" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="55">
+      <c r="B43" s="54">
         <v>2</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="54">
         <v>1.0549999999999999</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="54">
         <v>12</v>
       </c>
       <c r="F43" s="12">
         <v>4.99</v>
       </c>
-      <c r="G43" s="53">
-        <v>1.008</v>
+      <c r="G43" s="69">
+        <v>1.0189999999999999</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="55">
+      <c r="B44" s="54">
         <v>2.5</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="54">
         <v>1.0469999999999999</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="54">
         <v>15</v>
       </c>
       <c r="F44" s="12">
         <v>6.28</v>
       </c>
-      <c r="G44" s="53">
-        <v>1.004</v>
+      <c r="G44" s="69">
+        <v>1.008</v>
       </c>
     </row>
     <row r="45" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="55">
+      <c r="B45" s="54">
         <v>3</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="54">
         <v>1.04</v>
       </c>
       <c r="E45" s="6">
@@ -1915,107 +1919,108 @@
       <c r="F45" s="43">
         <v>7.48</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" s="55">
+      <c r="B46" s="54">
         <v>3.5</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="54">
         <v>1.034</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="55">
+      <c r="B47" s="54">
         <v>4</v>
       </c>
-      <c r="C47" s="55">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="E47" s="67" t="s">
+      <c r="C47" s="54">
+        <v>1.028</v>
+      </c>
+      <c r="E47" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="55">
+      <c r="B48" s="54">
         <v>4.5</v>
       </c>
-      <c r="C48" s="55">
+      <c r="C48" s="54">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="54">
+        <v>5</v>
+      </c>
+      <c r="C49" s="54">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="54">
+        <v>5.5</v>
+      </c>
+      <c r="C50" s="54">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="54">
+        <v>6</v>
+      </c>
+      <c r="C51" s="54">
         <v>1.01</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="55">
-        <v>5</v>
-      </c>
-      <c r="C49" s="55">
-        <v>1.008</v>
-      </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="55">
-        <v>5.5</v>
-      </c>
-      <c r="C50" s="55">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="55">
-        <v>6</v>
-      </c>
-      <c r="C51" s="55">
-        <v>1.0049999999999999</v>
-      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="55">
+      <c r="B52" s="54">
         <v>7</v>
       </c>
-      <c r="C52" s="55">
-        <v>1.002</v>
+      <c r="C52" s="54">
+        <v>1.0029999999999999</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="55">
+      <c r="B53" s="54">
         <v>8</v>
       </c>
-      <c r="C53" s="55">
-        <v>0.998</v>
+      <c r="C53" s="54">
+        <v>0.997</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="55">
+      <c r="B54" s="54">
         <v>10</v>
       </c>
-      <c r="C54" s="55">
-        <v>0.99199999999999999</v>
+      <c r="C54" s="54">
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="55">
+      <c r="B55" s="54">
         <v>13</v>
       </c>
-      <c r="C55" s="55">
-        <v>0.98399999999999999</v>
-      </c>
+      <c r="C55" s="54">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E55" s="71"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="55">
+      <c r="B56" s="54">
         <v>16</v>
       </c>
-      <c r="C56" s="55">
-        <v>0.97599999999999998</v>
+      <c r="C56" s="54">
+        <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2028,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="6">
-        <v>0.96499999999999997</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.2">
@@ -2101,272 +2106,272 @@
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C4" s="68">
+      <c r="C4" s="67">
         <v>6</v>
       </c>
       <c r="D4" s="12">
         <v>60</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="67">
         <f>AVERAGE(D4:D8)</f>
         <v>60</v>
       </c>
       <c r="F4" s="12">
         <v>60</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="67">
         <f>AVERAGE(F4:F8)</f>
         <v>60</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="68">
         <f>G4*$M$4*'Facteurs correctifs'!G41</f>
         <v>0</v>
       </c>
       <c r="M4" s="44"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C5" s="68"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="68"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C6" s="68"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="68"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C7" s="68"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="68"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C8" s="68"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="68"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C9" s="68">
+      <c r="C9" s="67">
         <v>9</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="68" t="e">
+      <c r="E9" s="67" t="e">
         <f t="shared" ref="E9" si="0">AVERAGE(D9:D13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F9" s="12">
         <v>60</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="67">
         <f t="shared" ref="G9" si="1">AVERAGE(F9:F13)</f>
         <v>60</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="68">
         <f>G9*$M$4*'Facteurs correctifs'!G42</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="68"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="68"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C11" s="68"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C12" s="68"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C13" s="68"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C14" s="68">
+      <c r="C14" s="67">
         <v>12</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="68" t="e">
+      <c r="E14" s="67" t="e">
         <f t="shared" ref="E14" si="2">AVERAGE(D14:D18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="12">
         <v>60</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="67">
         <f t="shared" ref="G14" si="3">AVERAGE(F14:F18)</f>
         <v>60</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="68">
         <f>G14*$M$4*'Facteurs correctifs'!G43</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="68"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="68"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C16" s="68"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="68"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="68"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="68"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="68"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="68"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="68">
+      <c r="C19" s="67">
         <v>15</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="68" t="e">
+      <c r="E19" s="67" t="e">
         <f t="shared" ref="E19" si="4">AVERAGE(D19:D23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="12">
         <v>60</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="67">
         <f t="shared" ref="G19" si="5">AVERAGE(F19:F23)</f>
         <v>60</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="67">
         <f>G19*$M$4*'Facteurs correctifs'!G44</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="68"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="68"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="68"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="68"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="68"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="68"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="68"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="68"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="68">
+      <c r="C24" s="67">
         <v>18</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="68" t="e">
+      <c r="E24" s="67" t="e">
         <f t="shared" ref="E24" si="6">AVERAGE(D24:D28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="12">
         <v>60</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="67">
         <f t="shared" ref="G24" si="7">AVERAGE(F24:F28)</f>
         <v>60</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="67">
         <f>G24*$M$4*'Facteurs correctifs'!G45</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="68"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="68"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="68"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="68"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="68"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="68"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C28" s="68"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="68"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="45"/>
@@ -2474,26 +2479,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H4:H8"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C19:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
